--- a/Code/Results/Cases/Case_9_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.54410945720561</v>
+        <v>20.53715235185678</v>
       </c>
       <c r="C2">
-        <v>15.67646418445854</v>
+        <v>15.84664009288231</v>
       </c>
       <c r="D2">
-        <v>4.862394272788118</v>
+        <v>4.914248309382335</v>
       </c>
       <c r="E2">
-        <v>14.0997666779045</v>
+        <v>14.01995308774689</v>
       </c>
       <c r="F2">
-        <v>15.37850906559512</v>
+        <v>15.19296389425084</v>
       </c>
       <c r="G2">
-        <v>18.0504569003259</v>
+        <v>16.99289666030218</v>
       </c>
       <c r="H2">
-        <v>2.158501292453353</v>
+        <v>2.149798502877212</v>
       </c>
       <c r="I2">
-        <v>3.075467775373669</v>
+        <v>3.08346150260594</v>
       </c>
       <c r="J2">
-        <v>7.631591811407344</v>
+        <v>8.236333830949869</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.24513488118769</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.101253424255095</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.52655885194864</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.02264264960549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.58097088279297</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>11.89781282230531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.24874891278395</v>
+        <v>19.25629848472012</v>
       </c>
       <c r="C3">
-        <v>14.91978653618593</v>
+        <v>14.97553765328929</v>
       </c>
       <c r="D3">
-        <v>4.642626011033697</v>
+        <v>4.676566877038344</v>
       </c>
       <c r="E3">
-        <v>13.50551587785109</v>
+        <v>13.45274379352321</v>
       </c>
       <c r="F3">
-        <v>15.01057638792885</v>
+        <v>14.87473635515842</v>
       </c>
       <c r="G3">
-        <v>17.56789619539862</v>
+        <v>16.57464388373676</v>
       </c>
       <c r="H3">
-        <v>1.956883825650547</v>
+        <v>1.955115507810386</v>
       </c>
       <c r="I3">
-        <v>2.9228492878545</v>
+        <v>2.948431209087783</v>
       </c>
       <c r="J3">
-        <v>7.664670875312699</v>
+        <v>8.250743597809931</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.4613758466206</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.308295990133288</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.4717798494507</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.96775894199462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.51568892080258</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>11.87348155022659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.40597845545894</v>
+        <v>18.42315509146464</v>
       </c>
       <c r="C4">
-        <v>14.43950886880798</v>
+        <v>14.42119313481931</v>
       </c>
       <c r="D4">
-        <v>4.502283737427406</v>
+        <v>4.524713614919692</v>
       </c>
       <c r="E4">
-        <v>13.12565648101757</v>
+        <v>13.09053616554496</v>
       </c>
       <c r="F4">
-        <v>14.79049326478271</v>
+        <v>14.68389375552551</v>
       </c>
       <c r="G4">
-        <v>17.28004132110607</v>
+        <v>16.32746201421713</v>
       </c>
       <c r="H4">
-        <v>1.828750494614469</v>
+        <v>1.831357075135909</v>
       </c>
       <c r="I4">
-        <v>2.826605894705927</v>
+        <v>2.863418672093301</v>
       </c>
       <c r="J4">
-        <v>7.688593049671308</v>
+        <v>8.260997594627128</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.60023022875705</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.455727977764863</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.78971051680765</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11.94169348695491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.82667267940634</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>11.8645298331664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.04986339894877</v>
+        <v>18.0711868748897</v>
       </c>
       <c r="C5">
-        <v>14.25352349653748</v>
+        <v>14.20383702058009</v>
       </c>
       <c r="D5">
-        <v>4.445733674288484</v>
+        <v>4.463275297597593</v>
       </c>
       <c r="E5">
-        <v>12.96492541091639</v>
+        <v>12.9373595841339</v>
       </c>
       <c r="F5">
-        <v>14.69288419303789</v>
+        <v>14.59829141387833</v>
       </c>
       <c r="G5">
-        <v>17.14763871725646</v>
+        <v>16.21214498018209</v>
       </c>
       <c r="H5">
-        <v>1.77531606470058</v>
+        <v>1.779739668427887</v>
       </c>
       <c r="I5">
-        <v>2.78726580921602</v>
+        <v>2.829018642062981</v>
       </c>
       <c r="J5">
-        <v>7.696578955593449</v>
+        <v>8.263088818338659</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.6535043367089</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.518936097291364</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.50546495515903</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11.92605821338456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.53937381154585</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11.85580751508949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.98906688632184</v>
+        <v>18.01112384185354</v>
       </c>
       <c r="C6">
-        <v>14.23897539845414</v>
+        <v>14.18368465571546</v>
       </c>
       <c r="D6">
-        <v>4.43866641959465</v>
+        <v>4.455295115915465</v>
       </c>
       <c r="E6">
-        <v>12.93523932970649</v>
+        <v>12.90906698303386</v>
       </c>
       <c r="F6">
-        <v>14.66517427090257</v>
+        <v>14.57311104681838</v>
       </c>
       <c r="G6">
-        <v>17.10458980589371</v>
+        <v>16.17231415439075</v>
       </c>
       <c r="H6">
-        <v>1.766239414609877</v>
+        <v>1.770970890609109</v>
       </c>
       <c r="I6">
-        <v>2.781537529765933</v>
+        <v>2.824464567531814</v>
       </c>
       <c r="J6">
-        <v>7.69473221267547</v>
+        <v>8.260486331744994</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.65656609379169</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.527624792470525</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.46053695402592</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11.91517576508358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.49380476451265</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>11.84648323187153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.39870882038497</v>
+        <v>18.41582456602205</v>
       </c>
       <c r="C7">
-        <v>14.481554307393</v>
+        <v>14.45877255716758</v>
       </c>
       <c r="D7">
-        <v>4.507998771361343</v>
+        <v>4.533778475618143</v>
       </c>
       <c r="E7">
-        <v>13.11605229479894</v>
+        <v>13.08076444524634</v>
       </c>
       <c r="F7">
-        <v>14.75775314125255</v>
+        <v>14.63636187867934</v>
       </c>
       <c r="G7">
-        <v>17.22085108334561</v>
+        <v>16.35867706769902</v>
       </c>
       <c r="H7">
-        <v>1.827671355344658</v>
+        <v>1.829980623906932</v>
       </c>
       <c r="I7">
-        <v>2.828037488866879</v>
+        <v>2.865327856909194</v>
       </c>
       <c r="J7">
-        <v>7.679897362656372</v>
+        <v>8.216541377603232</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.58026074035825</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.448060445254121</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.79334419199954</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11.91859702826561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.82949855734754</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>11.83100711300529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.10426811605773</v>
+        <v>20.10169909550902</v>
       </c>
       <c r="C8">
-        <v>15.47484699134133</v>
+        <v>15.59553628223759</v>
       </c>
       <c r="D8">
-        <v>4.795941918539146</v>
+        <v>4.853039352523451</v>
       </c>
       <c r="E8">
-        <v>13.88878339450669</v>
+        <v>13.8168060425533</v>
       </c>
       <c r="F8">
-        <v>15.21022304928355</v>
+        <v>14.99092789021724</v>
       </c>
       <c r="G8">
-        <v>17.8090330062825</v>
+        <v>17.0627782428176</v>
       </c>
       <c r="H8">
-        <v>2.089438377223121</v>
+        <v>2.082094755583927</v>
       </c>
       <c r="I8">
-        <v>3.025468155262001</v>
+        <v>3.039070915345895</v>
       </c>
       <c r="J8">
-        <v>7.630627494050837</v>
+        <v>8.111701519786244</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.28565630534775</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.146626830947423</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.1791571022638</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11.97214033994417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.2282926091257</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>11.8213386466681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.076620449949</v>
+        <v>23.0411273556734</v>
       </c>
       <c r="C9">
-        <v>17.21892757952072</v>
+        <v>17.60230133307798</v>
       </c>
       <c r="D9">
-        <v>5.305504804106183</v>
+        <v>5.406500930104002</v>
       </c>
       <c r="E9">
-        <v>15.29353983868618</v>
+        <v>15.15959600892801</v>
       </c>
       <c r="F9">
-        <v>16.19343093296429</v>
+        <v>15.83219034037605</v>
       </c>
       <c r="G9">
-        <v>19.12223419733944</v>
+        <v>18.28062337873182</v>
       </c>
       <c r="H9">
-        <v>2.569634224473744</v>
+        <v>2.545413203593601</v>
       </c>
       <c r="I9">
-        <v>3.390739227497513</v>
+        <v>3.361557397201062</v>
       </c>
       <c r="J9">
-        <v>7.579876075371976</v>
+        <v>8.060888830032912</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.798882611657703</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.753121353436418</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.60921667799559</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.18092480153764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>19.68172231315973</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.93388425604439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.09252005976948</v>
+        <v>25.03550289021084</v>
       </c>
       <c r="C10">
-        <v>18.48535013000699</v>
+        <v>19.00965616721789</v>
       </c>
       <c r="D10">
-        <v>5.681586568324782</v>
+        <v>5.827158018376315</v>
       </c>
       <c r="E10">
-        <v>15.73232393552529</v>
+        <v>15.55797607012709</v>
       </c>
       <c r="F10">
-        <v>16.78940235475101</v>
+        <v>16.25235412945607</v>
       </c>
       <c r="G10">
-        <v>19.85351048597703</v>
+        <v>19.42590327433026</v>
       </c>
       <c r="H10">
-        <v>2.880944104556748</v>
+        <v>2.843565479458666</v>
       </c>
       <c r="I10">
-        <v>3.645898601172727</v>
+        <v>3.58595386079081</v>
       </c>
       <c r="J10">
-        <v>7.517948027837659</v>
+        <v>7.797551898650299</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.423239940298025</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.500227928749868</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.97073488065078</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.2618046243603</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>21.05274610047329</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.88529396908089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.48606491273826</v>
+        <v>26.4265958967243</v>
       </c>
       <c r="C11">
-        <v>19.54649059691461</v>
+        <v>19.95739071912003</v>
       </c>
       <c r="D11">
-        <v>6.092815290416249</v>
+        <v>6.267102704214407</v>
       </c>
       <c r="E11">
-        <v>11.87914483876312</v>
+        <v>11.69335053085378</v>
       </c>
       <c r="F11">
-        <v>15.87850092607757</v>
+        <v>15.24536524255524</v>
       </c>
       <c r="G11">
-        <v>18.06009570346477</v>
+        <v>18.78536022867115</v>
       </c>
       <c r="H11">
-        <v>3.489043020321728</v>
+        <v>3.453619740461754</v>
       </c>
       <c r="I11">
-        <v>3.739738961912492</v>
+        <v>3.66721452103543</v>
       </c>
       <c r="J11">
-        <v>7.128094791145694</v>
+        <v>7.134518762174161</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.047532331990533</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.916741379106358</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.36719894509461</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.37740648847556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.42671324298218</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10.9484275631135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.26350130115895</v>
+        <v>27.20639155219731</v>
       </c>
       <c r="C12">
-        <v>20.13797130234723</v>
+        <v>20.42989752502362</v>
       </c>
       <c r="D12">
-        <v>6.359581559663957</v>
+        <v>6.53786959109505</v>
       </c>
       <c r="E12">
-        <v>9.407285712883739</v>
+        <v>9.21657234727517</v>
       </c>
       <c r="F12">
-        <v>15.00856257732723</v>
+        <v>14.3828503451406</v>
       </c>
       <c r="G12">
-        <v>16.43960941659817</v>
+        <v>17.77607134532294</v>
       </c>
       <c r="H12">
-        <v>4.555658634074121</v>
+        <v>4.527922621741266</v>
       </c>
       <c r="I12">
-        <v>3.767819400770989</v>
+        <v>3.690071341299591</v>
       </c>
       <c r="J12">
-        <v>6.825022804120184</v>
+        <v>6.807314968630054</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.889763344078009</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.548079306601458</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.70613582008273</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10.63965905456945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.74631142793488</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.23732441122461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.63619777244252</v>
+        <v>27.58559737782494</v>
       </c>
       <c r="C13">
-        <v>20.47349835011133</v>
+        <v>20.63756420340099</v>
       </c>
       <c r="D13">
-        <v>6.545422171087695</v>
+        <v>6.699676165612299</v>
       </c>
       <c r="E13">
-        <v>8.550552828962136</v>
+        <v>8.3804410906304</v>
       </c>
       <c r="F13">
-        <v>14.05326667838876</v>
+        <v>13.55558329097927</v>
       </c>
       <c r="G13">
-        <v>14.73392678662965</v>
+        <v>16.10456264506731</v>
       </c>
       <c r="H13">
-        <v>5.768228822492278</v>
+        <v>5.747639521840884</v>
       </c>
       <c r="I13">
-        <v>3.749799612481529</v>
+        <v>3.674246780635019</v>
       </c>
       <c r="J13">
-        <v>6.558067474817091</v>
+        <v>6.69627239553565</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.839850295205528</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.336085165157445</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.8567072768554</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9.933061459631674</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.87850095467126</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>9.646064568241121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.71932887797741</v>
+        <v>27.67517992274175</v>
       </c>
       <c r="C14">
-        <v>20.60834827597691</v>
+        <v>20.67667285739132</v>
       </c>
       <c r="D14">
-        <v>6.642886556054707</v>
+        <v>6.767175841430421</v>
       </c>
       <c r="E14">
-        <v>9.169369899586934</v>
+        <v>9.029338433344257</v>
       </c>
       <c r="F14">
-        <v>13.33073733757436</v>
+        <v>12.976424595433</v>
       </c>
       <c r="G14">
-        <v>13.47323965201933</v>
+        <v>14.60993958588654</v>
       </c>
       <c r="H14">
-        <v>6.666724977080005</v>
+        <v>6.650290316348428</v>
       </c>
       <c r="I14">
-        <v>3.717496194202123</v>
+        <v>3.647046756120389</v>
       </c>
       <c r="J14">
-        <v>6.388385966240323</v>
+        <v>6.690567881599203</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.84297009500014</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.276246777472751</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.45237924057948</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9.451623860288189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.46127289096847</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>9.280337271048399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.65201811763571</v>
+        <v>27.61040045768321</v>
       </c>
       <c r="C15">
-        <v>20.60080743773322</v>
+        <v>20.64309946730753</v>
       </c>
       <c r="D15">
-        <v>6.651436718821996</v>
+        <v>6.762810925141817</v>
       </c>
       <c r="E15">
-        <v>9.457474161948591</v>
+        <v>9.32671956805752</v>
       </c>
       <c r="F15">
-        <v>13.1270636401481</v>
+        <v>12.83067946042451</v>
       </c>
       <c r="G15">
-        <v>13.13053718936596</v>
+        <v>14.100319672286</v>
       </c>
       <c r="H15">
-        <v>6.872415170855152</v>
+        <v>6.857138200185756</v>
       </c>
       <c r="I15">
-        <v>3.700106530806276</v>
+        <v>3.632986713022258</v>
       </c>
       <c r="J15">
-        <v>6.352675660335323</v>
+        <v>6.71874143107772</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.853479547047648</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.290054091805924</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.06825785375419</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9.335978745715005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.07396423831105</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>9.207509619348784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.78771878580191</v>
+        <v>26.75498099478557</v>
       </c>
       <c r="C16">
-        <v>20.05633832531456</v>
+        <v>20.08111788896224</v>
       </c>
       <c r="D16">
-        <v>6.473685521305864</v>
+        <v>6.539863447713423</v>
       </c>
       <c r="E16">
-        <v>9.319456611901641</v>
+        <v>9.207857795328142</v>
       </c>
       <c r="F16">
-        <v>12.99844540444045</v>
+        <v>12.88564057224136</v>
       </c>
       <c r="G16">
-        <v>13.03422832872122</v>
+        <v>13.10284284740053</v>
       </c>
       <c r="H16">
-        <v>6.603943359150886</v>
+        <v>6.591504453163028</v>
       </c>
       <c r="I16">
-        <v>3.596229675736883</v>
+        <v>3.545394911630431</v>
       </c>
       <c r="J16">
-        <v>6.430461506782599</v>
+        <v>7.021027634337377</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.939637890563919</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.517144544839191</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.73673337475017</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9.425631499662231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.74330017289093</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>9.414756803828352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.06129556080423</v>
+        <v>26.03180502994787</v>
       </c>
       <c r="C17">
-        <v>19.55669544560416</v>
+        <v>19.6170755580971</v>
       </c>
       <c r="D17">
-        <v>6.28048262223478</v>
+        <v>6.333884712485332</v>
       </c>
       <c r="E17">
-        <v>8.694673500671859</v>
+        <v>8.584323402010543</v>
       </c>
       <c r="F17">
-        <v>13.29716480079069</v>
+        <v>13.22578654444868</v>
       </c>
       <c r="G17">
-        <v>13.65471711503862</v>
+        <v>13.28837940755536</v>
       </c>
       <c r="H17">
-        <v>5.871605464157422</v>
+        <v>5.859599656355328</v>
       </c>
       <c r="I17">
-        <v>3.533536440135225</v>
+        <v>3.492142098662832</v>
       </c>
       <c r="J17">
-        <v>6.578451292667747</v>
+        <v>7.253972606064547</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.025809144685248</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.704842613584543</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.26511943258149</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9.748243320729634</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.27914881983772</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>9.755882080803451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.38609710976338</v>
+        <v>25.35525581142862</v>
       </c>
       <c r="C18">
-        <v>19.01467454627555</v>
+        <v>19.16604442172667</v>
       </c>
       <c r="D18">
-        <v>6.050175590015573</v>
+        <v>6.110290087273491</v>
       </c>
       <c r="E18">
-        <v>8.637036712776682</v>
+        <v>8.516194618587459</v>
       </c>
       <c r="F18">
-        <v>14.01314803094029</v>
+        <v>13.89744815148443</v>
       </c>
       <c r="G18">
-        <v>14.99198812593777</v>
+        <v>14.36153098665644</v>
       </c>
       <c r="H18">
-        <v>4.710539095627895</v>
+        <v>4.696493707349321</v>
       </c>
       <c r="I18">
-        <v>3.499066928114265</v>
+        <v>3.461427044774854</v>
       </c>
       <c r="J18">
-        <v>6.812117891362825</v>
+        <v>7.495131406504579</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.146850645671341</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.912088663896395</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.59481659764536</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10.32648065699069</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.62392610652158</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>10.29219098391617</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.81160676183707</v>
+        <v>24.77580353765845</v>
       </c>
       <c r="C19">
-        <v>18.56585527274889</v>
+        <v>18.84221192521467</v>
       </c>
       <c r="D19">
-        <v>5.823471563840064</v>
+        <v>5.901077305207023</v>
       </c>
       <c r="E19">
-        <v>10.49886446635889</v>
+        <v>10.36612433307731</v>
       </c>
       <c r="F19">
-        <v>14.9503769395169</v>
+        <v>14.7413500038803</v>
       </c>
       <c r="G19">
-        <v>16.69968043285117</v>
+        <v>15.88414224412433</v>
       </c>
       <c r="H19">
-        <v>3.483243287073023</v>
+        <v>3.463505640197806</v>
       </c>
       <c r="I19">
-        <v>3.499827745469103</v>
+        <v>3.463096899321137</v>
       </c>
       <c r="J19">
-        <v>7.089439523087328</v>
+        <v>7.735619864112925</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.30262488803311</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.154494652895638</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.45966171005439</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.03986098151052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.50841666272596</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>10.92707091942121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.57601027393109</v>
+        <v>24.52526051726614</v>
       </c>
       <c r="C20">
-        <v>18.2777160709981</v>
+        <v>18.77101534644343</v>
       </c>
       <c r="D20">
-        <v>5.60343447476672</v>
+        <v>5.72566901619975</v>
       </c>
       <c r="E20">
-        <v>15.57705833185762</v>
+        <v>15.41522581362231</v>
       </c>
       <c r="F20">
-        <v>16.53909083988487</v>
+        <v>16.10589855825711</v>
       </c>
       <c r="G20">
-        <v>19.49242642384923</v>
+        <v>18.6819236671753</v>
       </c>
       <c r="H20">
-        <v>2.797427317258574</v>
+        <v>2.7644237020017</v>
       </c>
       <c r="I20">
-        <v>3.586674584312619</v>
+        <v>3.539120174692477</v>
       </c>
       <c r="J20">
-        <v>7.504081017673197</v>
+        <v>7.963363100672489</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.500026564626774</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.530558544741552</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.62861090864748</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.16519413643278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.70860394240048</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.86851854750619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.95670412172732</v>
+        <v>25.88640156068193</v>
       </c>
       <c r="C21">
-        <v>19.11206690652645</v>
+        <v>19.69001710959637</v>
       </c>
       <c r="D21">
-        <v>5.83579086545396</v>
+        <v>6.052336785407082</v>
       </c>
       <c r="E21">
-        <v>16.68910995832161</v>
+        <v>16.4898227593444</v>
       </c>
       <c r="F21">
-        <v>17.22852988677623</v>
+        <v>16.36526300401616</v>
       </c>
       <c r="G21">
-        <v>20.47223885063242</v>
+        <v>21.39669558082948</v>
       </c>
       <c r="H21">
-        <v>3.065849836471704</v>
+        <v>3.018001459865222</v>
       </c>
       <c r="I21">
-        <v>3.782631046605745</v>
+        <v>3.704558233177698</v>
       </c>
       <c r="J21">
-        <v>7.532957459450353</v>
+        <v>7.23820931190243</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.230015571184854</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.357509966683796</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.01504607559587</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.41812773203427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>22.09916469515117</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.78717815860861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.85212549894517</v>
+        <v>26.76995527803551</v>
       </c>
       <c r="C22">
-        <v>19.62273895402069</v>
+        <v>20.24384032447289</v>
       </c>
       <c r="D22">
-        <v>5.989690867090744</v>
+        <v>6.269040056359866</v>
       </c>
       <c r="E22">
-        <v>17.14402072421035</v>
+        <v>16.92289687956574</v>
       </c>
       <c r="F22">
-        <v>17.64652659494222</v>
+        <v>16.49231820453195</v>
       </c>
       <c r="G22">
-        <v>21.05284719782525</v>
+        <v>23.19403554057934</v>
       </c>
       <c r="H22">
-        <v>3.226367144025942</v>
+        <v>3.169144944749711</v>
       </c>
       <c r="I22">
-        <v>3.904497604980207</v>
+        <v>3.805932013617452</v>
       </c>
       <c r="J22">
-        <v>7.54651397431728</v>
+        <v>6.80060379181274</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.059512418566726</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.247198520255111</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.75046593104353</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.56616227345583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>22.83538255633831</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.70318241009839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.38005129082271</v>
+        <v>26.304314804708</v>
       </c>
       <c r="C23">
-        <v>19.30986090353673</v>
+        <v>19.91526345051695</v>
       </c>
       <c r="D23">
-        <v>5.901835603161061</v>
+        <v>6.14006772918202</v>
       </c>
       <c r="E23">
-        <v>16.90932152233873</v>
+        <v>16.69988672922729</v>
       </c>
       <c r="F23">
-        <v>17.45449849848645</v>
+        <v>16.49131094965453</v>
       </c>
       <c r="G23">
-        <v>20.79862031375878</v>
+        <v>22.08923019431631</v>
       </c>
       <c r="H23">
-        <v>3.141264431721148</v>
+        <v>3.089544821719803</v>
       </c>
       <c r="I23">
-        <v>3.836835643799921</v>
+        <v>3.748693066810119</v>
       </c>
       <c r="J23">
-        <v>7.548993911442557</v>
+        <v>7.09794716853453</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.163354077522774</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.337457747718142</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.35441561119273</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.51146699509603</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>22.44014128236444</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.80023029824529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.50661053913302</v>
+        <v>24.4552665523003</v>
       </c>
       <c r="C24">
-        <v>18.15531840289639</v>
+        <v>18.66211724720505</v>
       </c>
       <c r="D24">
-        <v>5.567625366851472</v>
+        <v>5.691241265911701</v>
       </c>
       <c r="E24">
-        <v>15.97998271736666</v>
+        <v>15.81670066466833</v>
       </c>
       <c r="F24">
-        <v>16.68387628737523</v>
+        <v>16.2407937294941</v>
       </c>
       <c r="G24">
-        <v>19.75798738182673</v>
+        <v>18.9128829189921</v>
       </c>
       <c r="H24">
-        <v>2.812117245244815</v>
+        <v>2.77909077250083</v>
       </c>
       <c r="I24">
-        <v>3.581116654252915</v>
+        <v>3.531734662107886</v>
       </c>
       <c r="J24">
-        <v>7.551713895015763</v>
+        <v>8.008960118253148</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.543243919087706</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.596721711526612</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.80180796491264</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.28308334130028</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>20.8842774229005</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.97689548494373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.30901959099225</v>
+        <v>22.28232855775557</v>
       </c>
       <c r="C25">
-        <v>16.83290203003997</v>
+        <v>17.15079417890793</v>
       </c>
       <c r="D25">
-        <v>5.183049969239837</v>
+        <v>5.267602815540586</v>
       </c>
       <c r="E25">
-        <v>14.91551356149973</v>
+        <v>14.79856048438835</v>
       </c>
       <c r="F25">
-        <v>15.87121346387323</v>
+        <v>15.57357102516266</v>
       </c>
       <c r="G25">
-        <v>18.66633662694544</v>
+        <v>17.73427423698428</v>
       </c>
       <c r="H25">
-        <v>2.4427059337868</v>
+        <v>2.423392978467399</v>
       </c>
       <c r="I25">
-        <v>3.29753803039142</v>
+        <v>3.281823986279554</v>
       </c>
       <c r="J25">
-        <v>7.574408181687945</v>
+        <v>8.109892467604157</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.910942840565768</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.823003171417283</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.99282532699615</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.07714400825019</v>
+        <v>19.05950827969443</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.87636151102635</v>
       </c>
     </row>
   </sheetData>
